--- a/database/industries/folad/faspa/product/yearly_seprated.xlsx
+++ b/database/industries/folad/faspa/product/yearly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\faspa\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\folad\faspa\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA83332F-F5FA-4144-B28B-1CCDEAE5F4F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71A21A74-8BF5-452E-AD2F-E498A7FC4AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -661,12 +661,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -676,7 +676,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -688,7 +688,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -700,7 +700,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -710,7 +710,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="2:9" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -734,7 +734,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -744,7 +744,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -766,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -776,7 +776,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
@@ -788,7 +788,7 @@
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>11</v>
       </c>
@@ -812,7 +812,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>14</v>
       </c>
@@ -836,7 +836,7 @@
         <v>9981</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>16</v>
       </c>
@@ -884,7 +884,7 @@
         <v>99612</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B16" s="14" t="s">
         <v>19</v>
       </c>
@@ -930,7 +930,7 @@
         <v>110293</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
@@ -942,7 +942,7 @@
       <c r="H17" s="9"/>
       <c r="I17" s="9"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>14</v>
       </c>
@@ -966,7 +966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>16</v>
       </c>
@@ -990,7 +990,7 @@
         <v>13595</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>21</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>22</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>23</v>
       </c>
@@ -1060,7 +1060,7 @@
         <v>13595</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="8" t="s">
         <v>24</v>
       </c>
@@ -1072,7 +1072,7 @@
       <c r="H23" s="9"/>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
         <v>25</v>
       </c>
@@ -1096,7 +1096,7 @@
         <v>15975</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>26</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>15975</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="16" t="s">
         <v>27</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="14" t="s">
         <v>29</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="16" t="s">
         <v>30</v>
       </c>
@@ -1186,7 +1186,7 @@
         <v>139863</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1196,7 +1196,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1206,7 +1206,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1216,7 +1216,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1248,7 +1248,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>32</v>
       </c>
@@ -1260,7 +1260,7 @@
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>11</v>
       </c>
@@ -1284,7 +1284,7 @@
         <v>156496</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>14</v>
       </c>
@@ -1308,7 +1308,7 @@
         <v>2211570</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>15</v>
       </c>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>16</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>23658912</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>17</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>580957</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
         <v>19</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>26607935</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
         <v>33</v>
       </c>
@@ -1414,7 +1414,7 @@
       <c r="H41" s="9"/>
       <c r="I41" s="9"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
         <v>14</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="12" t="s">
         <v>16</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>2976619</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>21</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="12" t="s">
         <v>22</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="16" t="s">
         <v>23</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>2976619</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>34</v>
       </c>
@@ -1544,7 +1544,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>25</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>19498</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
         <v>26</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>19498</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="16" t="s">
         <v>27</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>29</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="16" t="s">
         <v>30</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>29604052</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1670,7 +1670,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1680,7 +1680,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1690,7 +1690,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B56" s="7" t="s">
         <v>35</v>
       </c>
@@ -1712,7 +1712,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1722,7 +1722,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>36</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="H58" s="9"/>
       <c r="I58" s="9"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>11</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>223565714</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>14</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>221577998</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>15</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>16</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>237510661</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="10" t="s">
         <v>17</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="8" t="s">
         <v>39</v>
       </c>
@@ -1866,7 +1866,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="10" t="s">
         <v>14</v>
       </c>
@@ -1890,7 +1890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="12" t="s">
         <v>16</v>
       </c>
@@ -1914,7 +1914,7 @@
         <v>218949540</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
         <v>21</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="12" t="s">
         <v>22</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>40</v>
       </c>
@@ -1974,7 +1974,7 @@
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>25</v>
       </c>
@@ -1998,7 +1998,7 @@
         <v>1220532</v>
       </c>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2008,7 +2008,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2018,7 +2018,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -2028,7 +2028,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>41</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -2060,7 +2060,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>42</v>
       </c>
@@ -2072,7 +2072,7 @@
       <c r="H76" s="9"/>
       <c r="I76" s="9"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>11</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>-140762</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>14</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>-2205118</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>15</v>
       </c>
@@ -2144,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>16</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>-19120719</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="10" t="s">
         <v>17</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>43</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>-21466599</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="8" t="s">
         <v>44</v>
       </c>
@@ -2226,7 +2226,7 @@
       <c r="H83" s="9"/>
       <c r="I83" s="9"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>14</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="12" t="s">
         <v>16</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>-2741713</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>21</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="12" t="s">
         <v>22</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="16" t="s">
         <v>45</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>-2741713</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>46</v>
       </c>
@@ -2356,7 +2356,7 @@
       <c r="H89" s="9"/>
       <c r="I89" s="9"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>25</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>-15965</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="14" t="s">
         <v>47</v>
       </c>
@@ -2402,7 +2402,7 @@
         <v>-15965</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="16" t="s">
         <v>27</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>29</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="16" t="s">
         <v>30</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>-24224277</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2482,7 +2482,7 @@
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2492,7 +2492,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -2502,7 +2502,7 @@
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
     </row>
-    <row r="98" spans="2:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B98" s="7" t="s">
         <v>48</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -2534,7 +2534,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="8" t="s">
         <v>49</v>
       </c>
@@ -2546,7 +2546,7 @@
       <c r="H100" s="9"/>
       <c r="I100" s="9"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="10" t="s">
         <v>11</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>15734</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="12" t="s">
         <v>14</v>
       </c>
@@ -2594,7 +2594,7 @@
         <v>6452</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="10" t="s">
         <v>15</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="12" t="s">
         <v>16</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>4538193</v>
       </c>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="10" t="s">
         <v>17</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>580957</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="14" t="s">
         <v>50</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>5141336</v>
       </c>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="8" t="s">
         <v>51</v>
       </c>
@@ -2700,7 +2700,7 @@
       <c r="H107" s="9"/>
       <c r="I107" s="9"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="10" t="s">
         <v>14</v>
       </c>
@@ -2724,7 +2724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="12" t="s">
         <v>16</v>
       </c>
@@ -2748,7 +2748,7 @@
         <v>234906</v>
       </c>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="10" t="s">
         <v>21</v>
       </c>
@@ -2772,7 +2772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="12" t="s">
         <v>22</v>
       </c>
@@ -2796,7 +2796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="16" t="s">
         <v>52</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>234906</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>53</v>
       </c>
@@ -2830,7 +2830,7 @@
       <c r="H113" s="9"/>
       <c r="I113" s="9"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>25</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="14" t="s">
         <v>54</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>3533</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="16" t="s">
         <v>30</v>
       </c>
